--- a/processed_data/staff_data_scraped.xlsx
+++ b/processed_data/staff_data_scraped.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,350 +558,416 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Shuwanza Goff</t>
+          <t>Hartina Flournoy</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Deputy Director of the White House Office of Legislative Affairs</t>
+          <t>Chief of Staff to the Vice President</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/shuwanza-goff/</t>
+          <t>https://buildbackbetter.gov/nominees-and-appointees/hartina-flournoy/</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Shuwanza GoffDeputy Director of the White House Office of Legislative Affairs</t>
+          <t>Hartina FlournoyChief of Staff to the Vice President</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Karine Jean-Pierre</t>
+          <t>Shuwanza Goff</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Principal Deputy Press Secretary</t>
+          <t>Deputy Director of the White House Office of Legislative Affairs</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/karine-jean-pierre/</t>
+          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/shuwanza-goff/</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Karine Jean-PierrePrincipal Deputy Press Secretary</t>
+          <t>Shuwanza GoffDeputy Director of the White House Office of Legislative Affairs</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ron Klain</t>
+          <t>Karine Jean-Pierre</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Chief of Staff</t>
+          <t>Principal Deputy Press Secretary</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/ron-klain/</t>
+          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/karine-jean-pierre/</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ron KlainChief of Staff</t>
+          <t>Karine Jean-PierrePrincipal Deputy Press Secretary</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jen O’Malley Dillon</t>
+          <t>Ron Klain</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Deputy Chief of Staff</t>
+          <t>Chief of Staff</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/jen-omalley-dillon/</t>
+          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/ron-klain/</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jen O’Malley DillonDeputy Chief of Staff</t>
+          <t>Ron KlainChief of Staff</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jen Psaki</t>
+          <t>Rohini Kosoglu</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>White House Press Secretary</t>
+          <t>Domestic Policy Advisor to the Vice President</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/jen-psaki/</t>
+          <t>https://buildbackbetter.gov/rohini-kosoglu/</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jen PsakiWhite House Press Secretary</t>
+          <t>Rohini KosogluDomestic Policy Advisor to the Vice President</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dana Remus</t>
+          <t>Nancy McEldowney</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>White House Counsel</t>
+          <t>National Security Advisor to the Vice President</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/dana-remus/</t>
+          <t>https://buildbackbetter.gov/nancy-mceldowney/</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Dana RemusWhite House Counsel</t>
+          <t>Nancy McEldowneyNational Security Advisor to the Vice President</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Julissa Reynoso Pantaleon</t>
+          <t>Jen O’Malley Dillon</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chief of Staff to Dr. Jill Biden</t>
+          <t>Deputy Chief of Staff</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/julissa-reynoso-pantaleon/</t>
+          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/jen-omalley-dillon/</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Julissa Reynoso PantaleonChief of Staff to Dr. Jill Biden</t>
+          <t>Jen O’Malley DillonDeputy Chief of Staff</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Steve Ricchetti</t>
+          <t>Jen Psaki</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Counselor to the President</t>
+          <t>White House Press Secretary</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/steve-ricchetti/</t>
+          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/jen-psaki/</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Steve RicchettiCounselor to the President</t>
+          <t>Jen PsakiWhite House Press Secretary</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Cedric Richmond</t>
+          <t>Dana Remus</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Senior Advisor to the President and Director of the White House Office of Public Engagement</t>
+          <t>White House Counsel</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/cedric-richmond/</t>
+          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/dana-remus/</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cedric RichmondSenior Advisor to the President and Director of the White House Office of Public Engagement</t>
+          <t>Dana RemusWhite House Counsel</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Julie Rodriguez</t>
+          <t>Julissa Reynoso Pantaleon</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Director of the White House Office of Intergovernmental Affairs</t>
+          <t>Chief of Staff to Dr. Jill Biden</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/julie-rodriguez/</t>
+          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/julissa-reynoso-pantaleon/</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Julie RodriguezDirector of the White House Office of Intergovernmental Affairs</t>
+          <t>Julissa Reynoso PantaleonChief of Staff to Dr. Jill Biden</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Cathy Russell</t>
+          <t>Steve Ricchetti</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Director of the White House Office of Presidential Personnel</t>
+          <t>Counselor to the President</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/cathy-russell/</t>
+          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/steve-ricchetti/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cathy RussellDirector of the White House Office of Presidential Personnel</t>
+          <t>Steve RicchettiCounselor to the President</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Symone Sanders</t>
+          <t>Cedric Richmond</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Senior Advisor and Chief Spokesperson for the Vice President</t>
+          <t>Senior Advisor to the President and Director of the White House Office of Public Engagement</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/symone-sanders/</t>
+          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/cedric-richmond/</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Symone SandersSenior Advisor and Chief Spokesperson for the Vice President</t>
+          <t>Cedric RichmondSenior Advisor to the President and Director of the White House Office of Public Engagement</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Jake Sullivan</t>
+          <t>Julie Rodriguez</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>National Security Advisor</t>
+          <t>Director of the White House Office of Intergovernmental Affairs</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/nominees-and-appointees/jake-sullivan/</t>
+          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/julie-rodriguez/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jake SullivanNational Security Advisor</t>
+          <t>Julie RodriguezDirector of the White House Office of Intergovernmental Affairs</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Louisa Terrell</t>
+          <t>Cathy Russell</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Director of the White House Office of Legislative Affairs</t>
+          <t>Director of the White House Office of Presidential Personnel</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/louisa-terrell/</t>
+          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/cathy-russell/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Louisa TerrellDirector of the White House Office of Legislative Affairs</t>
+          <t>Cathy RussellDirector of the White House Office of Presidential Personnel</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pili Tobar</t>
+          <t>Symone Sanders</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Deputy White House Communications Director</t>
+          <t>Senior Advisor and Chief Spokesperson for the Vice President</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/pili-tobar/</t>
+          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/symone-sanders/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Pili TobarDeputy White House Communications Director</t>
+          <t>Symone SandersSenior Advisor and Chief Spokesperson for the Vice President</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>Jake Sullivan</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>National Security Advisor</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://buildbackbetter.gov/nominees-and-appointees/jake-sullivan/</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Jake SullivanNational Security Advisor</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Louisa Terrell</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Director of the White House Office of Legislative Affairs</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/louisa-terrell/</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Louisa TerrellDirector of the White House Office of Legislative Affairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Pili Tobar</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Deputy White House Communications Director</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/pili-tobar/</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Pili TobarDeputy White House Communications Director</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>Annie Tomasini</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Director of Oval Office Operations</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>https://buildbackbetter.gov/the-administration/white-house-senior-staff/annie-tomasini/</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Annie TomasiniDirector of Oval Office Operations</t>
         </is>
